--- a/DataGrid.xlsx
+++ b/DataGrid.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="181">
   <si>
     <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +219,419 @@
   </si>
   <si>
     <t>根据查询条件，客户端在当前页中查找;定位单元格高亮，且应该在datagrid的可视区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除所有选中的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制并追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定位置添加若干行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表尾追加若干行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改已有记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同列单元格数据为同类型数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同列单元格数据类型可能不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可关联自定义工具条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可关联自定义表体/表头右键菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印、导出excel等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onLoadSuccess</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Fires when data is loaded successfully.</t>
+  </si>
+  <si>
+    <t>onLoadError</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Fires when some errors occur to load remote data.</t>
+  </si>
+  <si>
+    <t>onBeforeLoad</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>Fires before a request is made to load data. If return false the load action will be canceled.</t>
+  </si>
+  <si>
+    <t>onClickRow</t>
+  </si>
+  <si>
+    <t>index,row</t>
+  </si>
+  <si>
+    <t>Fires when the user clicks a row, the parameters contains:</t>
+  </si>
+  <si>
+    <t>index: the clicked row index, start with 0</t>
+  </si>
+  <si>
+    <t>row: the record corresponding to the clicked row</t>
+  </si>
+  <si>
+    <t>onDblClickRow</t>
+  </si>
+  <si>
+    <t>Fires when the user double clicks a row, the parameters contains:</t>
+  </si>
+  <si>
+    <t>onClickCell</t>
+  </si>
+  <si>
+    <t>index,field,value</t>
+  </si>
+  <si>
+    <t>Fires when the user clicks a cell.</t>
+  </si>
+  <si>
+    <t>onDblClickCell</t>
+  </si>
+  <si>
+    <t>Fires when the user double clicks a cell.</t>
+  </si>
+  <si>
+    <t>Code example:</t>
+  </si>
+  <si>
+    <t>// when double click a cell, begin editing and make the editor get focus</t>
+  </si>
+  <si>
+    <t>$('#dg').datagrid({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        onDblClickCell: function(index,field,value){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                $(this).datagrid('beginEdit', index);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var ed = $(this).datagrid('getEditor', {index:index,field:field});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                $(ed.target).focus();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>onBeforeSortColumn</t>
+  </si>
+  <si>
+    <t>sort,order</t>
+  </si>
+  <si>
+    <t>Fires before the user sorts a column, return false to cancel this action. Available since version 1.3.6.</t>
+  </si>
+  <si>
+    <t>onSortColumn</t>
+  </si>
+  <si>
+    <t>Fires when the user sorts a column, the parameters contains:</t>
+  </si>
+  <si>
+    <t>sort: the sort column field name</t>
+  </si>
+  <si>
+    <t>order: the sort column order</t>
+  </si>
+  <si>
+    <t>onResizeColumn</t>
+  </si>
+  <si>
+    <t>field,width</t>
+  </si>
+  <si>
+    <t>Fires when the user resizes the column.</t>
+  </si>
+  <si>
+    <t>onBeforeSelect</t>
+  </si>
+  <si>
+    <t>Fires before the user selects a row, return false to cancel this action. Available since version 1.4.1.</t>
+  </si>
+  <si>
+    <t>onSelect</t>
+  </si>
+  <si>
+    <t>Fires when the user selects a row, the parameters contains:</t>
+  </si>
+  <si>
+    <t>index: the selected row index, start with 0</t>
+  </si>
+  <si>
+    <t>row: the record corresponding to the selected row</t>
+  </si>
+  <si>
+    <t>onBeforeUnselect</t>
+  </si>
+  <si>
+    <t>Fires before the user unselects a row, return false to cancel this action. Available since version 1.4.1.</t>
+  </si>
+  <si>
+    <t>onUnselect</t>
+  </si>
+  <si>
+    <t>Fires when the user unselects a row, the parameters contains:</t>
+  </si>
+  <si>
+    <t>index: the unselected row index, start with 0</t>
+  </si>
+  <si>
+    <t>row: the record corresponding to the unselected row</t>
+  </si>
+  <si>
+    <t>onSelectAll</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>Fires when the user selects all rows.</t>
+  </si>
+  <si>
+    <t>onUnselectAll</t>
+  </si>
+  <si>
+    <t>Fires when the user unselects all rows.</t>
+  </si>
+  <si>
+    <t>onBeforeCheck</t>
+  </si>
+  <si>
+    <t>Fires before the user checks a row, return false to cancel this action. Available since version 1.4.1.</t>
+  </si>
+  <si>
+    <t>onCheck</t>
+  </si>
+  <si>
+    <t>Fires when the user checks a row, the parameters contains:</t>
+  </si>
+  <si>
+    <t>index: the checked row index, start with 0</t>
+  </si>
+  <si>
+    <t>row: the record corresponding to the checked row</t>
+  </si>
+  <si>
+    <t>Available since version 1.3.</t>
+  </si>
+  <si>
+    <t>onBeforeUncheck</t>
+  </si>
+  <si>
+    <t>Fires before the user unchecks a row, return false to cancel this action. Available since version 1.4.1.</t>
+  </si>
+  <si>
+    <t>onUncheck</t>
+  </si>
+  <si>
+    <t>Fires when the user unchecks a row, the parameters contains:</t>
+  </si>
+  <si>
+    <t>index: the unchecked row index, start with 0</t>
+  </si>
+  <si>
+    <t>row: the record corresponding to the unchecked row</t>
+  </si>
+  <si>
+    <t>onCheckAll</t>
+  </si>
+  <si>
+    <t>Fires when the user checks all rows. Available since version 1.3.</t>
+  </si>
+  <si>
+    <t>onUncheckAll</t>
+  </si>
+  <si>
+    <t>Fires when the user unchecks all rows. Available since version 1.3.</t>
+  </si>
+  <si>
+    <t>onBeforeEdit</t>
+  </si>
+  <si>
+    <t>Fires before the user starts editing a row, return false to cancel this action. The parameters contains:</t>
+  </si>
+  <si>
+    <t>index: the editing row index, start with 0</t>
+  </si>
+  <si>
+    <t>row: the record corresponding to the editing row</t>
+  </si>
+  <si>
+    <t>onBeginEdit</t>
+  </si>
+  <si>
+    <t>onEndEdit</t>
+  </si>
+  <si>
+    <t>index,row,changes</t>
+  </si>
+  <si>
+    <t>Fires when finishing editing but before destroying editors. Available since version 1.3.6.</t>
+  </si>
+  <si>
+    <t>onAfterEdit</t>
+  </si>
+  <si>
+    <t>Fires after the user finishes editing, the parameters contains:</t>
+  </si>
+  <si>
+    <t>changes: the changed field/value pairs</t>
+  </si>
+  <si>
+    <t>onCancelEdit</t>
+  </si>
+  <si>
+    <t>Fires when the user cancels editing a row, the parameters contains:</t>
+  </si>
+  <si>
+    <t>onHeaderContextMenu</t>
+  </si>
+  <si>
+    <t>e,field</t>
+  </si>
+  <si>
+    <t>Fires when the header of datagrid is right clicked.</t>
+  </si>
+  <si>
+    <t>onRowContextMenu</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>e,index,row</t>
+  </si>
+  <si>
+    <t>Fires when a row is right clicked.</t>
+  </si>
+  <si>
+    <t>Fires when a row goes into edit mode. Available since version 1.3.6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义编辑器机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>container, options</t>
+  </si>
+  <si>
+    <t>Initialize the editor and return the target object.</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>Destroy the editor if necessary.</t>
+  </si>
+  <si>
+    <t>getValue</t>
+  </si>
+  <si>
+    <t>Get value from editor text.</t>
+  </si>
+  <si>
+    <t>setValue</t>
+  </si>
+  <si>
+    <t>target , value</t>
+  </si>
+  <si>
+    <t>Set value for editor.</t>
+  </si>
+  <si>
+    <t>resize</t>
+  </si>
+  <si>
+    <t>target , width</t>
+  </si>
+  <si>
+    <t>Resize the editor if necessary.</t>
+  </si>
+  <si>
+    <t>注：grid内部实现常用编辑器：textbox,numberbox,combox,datetime,refer等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+暴露相关交互事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+交互接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +639,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +655,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -251,7 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,18 +704,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -300,6 +711,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,21 +1033,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="36.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="41.25" style="1" customWidth="1"/>
@@ -618,386 +1056,1336 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1">
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="40.5" customHeight="1">
+      <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="40.5" customHeight="1">
-      <c r="A5" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="70.5" customHeight="1">
+      <c r="A5" s="7"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A6" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="63.75" customHeight="1">
+      <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="33" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" ht="33" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1">
+      <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="F11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="A13" s="2"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="3" t="s">
+    <row r="19" spans="1:6" ht="30" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7" t="s">
-        <v>42</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="3" t="s">
+    <row r="24" spans="1:6" ht="30" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="40.5">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="3" t="s">
+    <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="A27" s="2"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="2"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="2"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="2"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1">
+      <c r="A32" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="7"/>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="7"/>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="8"/>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="8"/>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="8"/>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="8"/>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="8"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="8"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="8"/>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" customHeight="1">
+      <c r="A50" s="12"/>
+      <c r="B50" s="8"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" customHeight="1">
+      <c r="A51" s="12"/>
+      <c r="B51" s="8"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" ht="30" customHeight="1">
+      <c r="A52" s="12"/>
+      <c r="B52" s="8"/>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" customHeight="1">
+      <c r="A53" s="12"/>
+      <c r="B53" s="8"/>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" customHeight="1">
+      <c r="A54" s="12"/>
+      <c r="B54" s="8"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" customHeight="1">
+      <c r="A55" s="12"/>
+      <c r="B55" s="8"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" customHeight="1">
+      <c r="A56" s="12"/>
+      <c r="B56" s="8"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" ht="30" customHeight="1">
+      <c r="A57" s="12"/>
+      <c r="B57" s="8"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" customHeight="1">
+      <c r="A58" s="12"/>
+      <c r="B58" s="8"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" ht="30" customHeight="1">
+      <c r="A59" s="12"/>
+      <c r="B59" s="8"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" ht="30" customHeight="1">
+      <c r="A60" s="12"/>
+      <c r="B60" s="8"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="1:6" ht="30" customHeight="1">
+      <c r="A61" s="12"/>
+      <c r="B61" s="8"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" ht="30" customHeight="1">
+      <c r="A62" s="12"/>
+      <c r="B62" s="8"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:6" ht="30" customHeight="1">
+      <c r="A63" s="12"/>
+      <c r="B63" s="8"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6" ht="30" customHeight="1">
+      <c r="A64" s="12"/>
+      <c r="B64" s="8"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="1:6" ht="30" customHeight="1">
+      <c r="A65" s="12"/>
+      <c r="B65" s="8"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" ht="30" customHeight="1">
+      <c r="A66" s="12"/>
+      <c r="B66" s="8"/>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:6" ht="30" customHeight="1">
+      <c r="A67" s="12"/>
+      <c r="B67" s="8"/>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:6" ht="30" customHeight="1">
+      <c r="A68" s="12"/>
+      <c r="B68" s="8"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" customHeight="1">
+      <c r="A69" s="12"/>
+      <c r="B69" s="8"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" customHeight="1">
+      <c r="A70" s="12"/>
+      <c r="B70" s="8"/>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" customHeight="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="8"/>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" ht="30" customHeight="1">
+      <c r="A72" s="12"/>
+      <c r="B72" s="8"/>
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" customHeight="1">
+      <c r="A73" s="12"/>
+      <c r="B73" s="8"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1">
+      <c r="A74" s="12"/>
+      <c r="B74" s="8"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" customHeight="1">
+      <c r="A75" s="12"/>
+      <c r="B75" s="8"/>
+      <c r="C75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="1:6" ht="30" customHeight="1">
+      <c r="A76" s="12"/>
+      <c r="B76" s="8"/>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" customHeight="1">
+      <c r="A77" s="12"/>
+      <c r="B77" s="8"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" customHeight="1">
+      <c r="A78" s="12"/>
+      <c r="B78" s="8"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" customHeight="1">
+      <c r="A79" s="12"/>
+      <c r="B79" s="8"/>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" ht="30" customHeight="1">
+      <c r="A80" s="12"/>
+      <c r="B80" s="8"/>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="1:6" ht="30" customHeight="1">
+      <c r="A81" s="12"/>
+      <c r="B81" s="8"/>
+      <c r="C81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" customHeight="1">
+      <c r="A82" s="12"/>
+      <c r="B82" s="8"/>
+      <c r="C82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="1:6" ht="30" customHeight="1">
+      <c r="A83" s="12"/>
+      <c r="B83" s="8"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="1:6" ht="30" customHeight="1">
+      <c r="A84" s="12"/>
+      <c r="B84" s="8"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="1:6" ht="30" customHeight="1">
+      <c r="A85" s="12"/>
+      <c r="B85" s="8"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="1:6" ht="30" customHeight="1">
+      <c r="A86" s="12"/>
+      <c r="B86" s="8"/>
+      <c r="C86" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6" ht="30" customHeight="1">
+      <c r="A87" s="12"/>
+      <c r="B87" s="8"/>
+      <c r="C87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" spans="1:6" ht="30" customHeight="1">
+      <c r="A88" s="12"/>
+      <c r="B88" s="8"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" customHeight="1">
+      <c r="A89" s="12"/>
+      <c r="B89" s="8"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="1:6" ht="30" customHeight="1">
+      <c r="A90" s="12"/>
+      <c r="B90" s="8"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="1:6" ht="30" customHeight="1">
+      <c r="A91" s="12"/>
+      <c r="B91" s="8"/>
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" customHeight="1">
+      <c r="A92" s="12"/>
+      <c r="B92" s="8"/>
+      <c r="C92" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92" s="12"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" customHeight="1">
+      <c r="A93" s="12"/>
+      <c r="B93" s="8"/>
+      <c r="C93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F93" s="12"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" customHeight="1">
+      <c r="A94" s="12"/>
+      <c r="B94" s="8"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F94" s="12"/>
+    </row>
+    <row r="95" spans="1:6" ht="30" customHeight="1">
+      <c r="A95" s="12"/>
+      <c r="B95" s="8"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" s="12"/>
+    </row>
+    <row r="96" spans="1:6" ht="30" customHeight="1">
+      <c r="A96" s="12"/>
+      <c r="B96" s="8"/>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F96" s="12"/>
+    </row>
+    <row r="97" spans="1:6" ht="30" customHeight="1">
+      <c r="A97" s="12"/>
+      <c r="B97" s="8"/>
+      <c r="C97" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="12"/>
+    </row>
+    <row r="98" spans="1:6" ht="30" customHeight="1">
+      <c r="A98" s="12"/>
+      <c r="B98" s="8"/>
+      <c r="C98" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F98" s="12"/>
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1">
+      <c r="A99" s="12"/>
+      <c r="B99" s="8"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99" s="12"/>
+    </row>
+    <row r="100" spans="1:6" ht="30" customHeight="1">
+      <c r="A100" s="12"/>
+      <c r="B100" s="8"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F100" s="12"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" customHeight="1">
+      <c r="A101" s="12"/>
+      <c r="B101" s="8"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" spans="1:6" ht="30" customHeight="1">
+      <c r="A102" s="12"/>
+      <c r="B102" s="8"/>
+      <c r="C102" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F102" s="12"/>
+    </row>
+    <row r="103" spans="1:6" ht="30" customHeight="1">
+      <c r="A103" s="12"/>
+      <c r="B103" s="8"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F103" s="12"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" customHeight="1">
+      <c r="A104" s="12"/>
+      <c r="B104" s="8"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F104" s="12"/>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1">
+      <c r="A105" s="12"/>
+      <c r="B105" s="8"/>
+      <c r="C105" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" t="s">
+        <v>153</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F105" s="12"/>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1">
+      <c r="A106" s="12"/>
+      <c r="B106" s="8"/>
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F106" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A2:H2"/>
+  <mergeCells count="26">
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="F42:F106"/>
+    <mergeCell ref="B42:B106"/>
+    <mergeCell ref="A32:A106"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataGrid.xlsx
+++ b/DataGrid.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
   <si>
     <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,13 +326,7 @@
     <t>Fires when the user double clicks a row, the parameters contains:</t>
   </si>
   <si>
-    <t>onClickCell</t>
-  </si>
-  <si>
     <t>index,field,value</t>
-  </si>
-  <si>
-    <t>Fires when the user clicks a cell.</t>
   </si>
   <si>
     <t>onDblClickCell</t>
@@ -632,6 +626,101 @@
   <si>
     <t xml:space="preserve">
 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选时应该支持分页多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对已有记录排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供排序接口（栏目字段排序时用到）；包括置顶，置底，按指定增量移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列相关的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些列为外键列，视图模式中表现为外链，点击时显示详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fires when the user clicks a cell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onColumnClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onClickCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对onClickCell的封装，使支持在列定义中配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据多且不使用分页时，考虑虚拟滚动逐渐显示数据，以提供渲染速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：这个功能通过列样式控制机制和列事件配置可以实现（只要指定为外键且设置对应的处理过程即可），这个特性在编辑态无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑的关键是提供对以下特性支持：
+1.实现关联信息的同步修改；
+2.字段的自身约束定义；（包括数值类型和有效取值范围等）
+3.数据字段之间要能定义约束（主要是条件表达式约束，例如保持类型的父子关系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编辑数据中的列分为可编辑列和只读列；可编辑列之间也可能存在关联关系，关联关系通过监听change保持同步；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid分为两种编辑态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个单元格都有自己的编辑器（相同类型的数据编辑可以共享编辑器，可针对所有单元格数据涵盖的数据类型定义针对数据类型的编辑器，主要用于参数设置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属常规模式，每列的数据类型一样，同列中单元格公用列定义的编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段数据的控制在model中定义，字段之间的约束在编辑开始或结束事件中控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照数据应用：选择参照来源确定后的回调中把参照表中的数据根据需要同步到grid 的model中，从而实现把需要的参照信息都拉不来。参照数据和grid model中字段的适配在回调中处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑对二维表数据的支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +754,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,23 +813,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1033,11 +1152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1056,17 +1175,17 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="13.5">
+      <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1079,46 +1198,49 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="13.5">
+      <c r="A2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:19" ht="40.5">
+      <c r="A3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="40.5" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1130,12 +1252,12 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1150,73 +1272,76 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="21"/>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="21"/>
       <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="33" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="21"/>
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="21"/>
       <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1230,9 +1355,9 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1241,9 +1366,9 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1251,1130 +1376,1222 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:19" ht="27">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:19" ht="30" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1" t="s">
+    <row r="19" spans="1:8" ht="30" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6" t="s">
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="21"/>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1">
+    <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="40.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="40.5">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="81">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1">
+      <c r="A27" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="1" t="s">
-        <v>55</v>
+      <c r="E27" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3" t="s">
-        <v>53</v>
-      </c>
+    <row r="28" spans="1:8" ht="30" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="21"/>
       <c r="F28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="3" t="s">
-        <v>52</v>
-      </c>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="21"/>
       <c r="F29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="20"/>
       <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E30" s="21"/>
       <c r="F30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="20"/>
       <c r="C31" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E31" s="21"/>
       <c r="F31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:8" ht="40.5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27">
+      <c r="A33" s="20"/>
+      <c r="B33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1">
+      <c r="A34" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="3" t="s">
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="3" t="s">
+    <row r="36" spans="1:6" ht="30" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="7" t="s">
+    <row r="37" spans="1:6" ht="30" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="E38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="7"/>
-      <c r="C36" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="7"/>
-      <c r="C37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="7"/>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7"/>
-      <c r="C39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="7"/>
-      <c r="C40" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="8" t="s">
+      <c r="F44" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="8"/>
-      <c r="C43" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" t="s">
         <v>65</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="8"/>
-      <c r="C44" t="s">
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" t="s">
         <v>68</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="8"/>
-      <c r="C45" t="s">
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" t="s">
         <v>71</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8"/>
-      <c r="C46" t="s">
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" t="s">
         <v>74</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="8"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47" s="1" t="s">
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" customHeight="1">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="8"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="8"/>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" customHeight="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" ht="30" customHeight="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="8"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51" s="1" t="s">
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" customHeight="1">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" ht="30" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="8"/>
-      <c r="C52" t="s">
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" customHeight="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" t="s">
         <v>81</v>
       </c>
-      <c r="D52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" ht="30" customHeight="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="8"/>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" ht="30" customHeight="1">
-      <c r="A54" s="12"/>
-      <c r="B54" s="8"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="F54" s="12"/>
+      <c r="E54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="8"/>
-      <c r="C55"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
       <c r="D55"/>
       <c r="E55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="8"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" s="12"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1">
-      <c r="A58" s="12"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1">
-      <c r="A59" s="12"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="E59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="12"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="12"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1">
-      <c r="A61" s="12"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="12"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="12"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="12"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F64" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1">
-      <c r="A65" s="12"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="F65" s="12"/>
+      <c r="E65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="8"/>
-      <c r="C66" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" t="s">
-        <v>96</v>
-      </c>
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66"/>
+      <c r="D66"/>
       <c r="E66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1">
-      <c r="A67" s="12"/>
-      <c r="B67" s="8"/>
-      <c r="C67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" t="s">
-        <v>96</v>
-      </c>
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67"/>
+      <c r="D67"/>
       <c r="E67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1">
-      <c r="A68" s="12"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" customHeight="1">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" customHeight="1">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" customHeight="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="1:6" ht="30" customHeight="1">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" customHeight="1">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
+      <c r="C73" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1">
-      <c r="A69" s="12"/>
-      <c r="B69" s="8"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69" s="1" t="s">
+      <c r="D73" t="s">
         <v>101</v>
       </c>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="8"/>
-      <c r="C70" t="s">
+      <c r="E73" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="8"/>
-      <c r="C71" t="s">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" customHeight="1">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" t="s">
         <v>105</v>
-      </c>
-      <c r="D71" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="12"/>
-      <c r="B72" s="8"/>
-      <c r="C72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" t="s">
-        <v>75</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="1:6" ht="30" customHeight="1">
-      <c r="A73" s="12"/>
-      <c r="B73" s="8"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1">
-      <c r="A74" s="12"/>
-      <c r="B74" s="8"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="1:6" ht="30" customHeight="1">
-      <c r="A75" s="12"/>
-      <c r="B75" s="8"/>
-      <c r="C75" t="s">
-        <v>111</v>
       </c>
       <c r="D75" t="s">
         <v>75</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F75" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1">
-      <c r="A76" s="12"/>
-      <c r="B76" s="8"/>
-      <c r="C76" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76"/>
+      <c r="D76"/>
       <c r="E76" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F76" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1">
-      <c r="A77" s="12"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" customHeight="1">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" customHeight="1">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="1:6" ht="30" customHeight="1">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="1:6" ht="30" customHeight="1">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" customHeight="1">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" t="s">
         <v>115</v>
       </c>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="12"/>
-      <c r="B78" s="8"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78" s="1" t="s">
+      <c r="D82" t="s">
         <v>116</v>
       </c>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="12"/>
-      <c r="B79" s="8"/>
-      <c r="C79" t="s">
+      <c r="E82" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="1:6" ht="30" customHeight="1">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" t="s">
         <v>118</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="D83" t="s">
+        <v>116</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" ht="30" customHeight="1">
-      <c r="A80" s="12"/>
-      <c r="B80" s="8"/>
-      <c r="C80" t="s">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="1:6" ht="30" customHeight="1">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" t="s">
         <v>120</v>
       </c>
-      <c r="D80" t="s">
-        <v>118</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="D84" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F80" s="12"/>
-    </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1">
-      <c r="A81" s="12"/>
-      <c r="B81" s="8"/>
-      <c r="C81" t="s">
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="1:6" ht="30" customHeight="1">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" t="s">
         <v>122</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D85" t="s">
         <v>75</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1">
-      <c r="A82" s="12"/>
-      <c r="B82" s="8"/>
-      <c r="C82" t="s">
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="1:6" ht="30" customHeight="1">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D82" t="s">
-        <v>75</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="1:6" ht="30" customHeight="1">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1">
-      <c r="A83" s="12"/>
-      <c r="B83" s="8"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="12"/>
-    </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="8"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F84" s="12"/>
-    </row>
-    <row r="85" spans="1:6" ht="30" customHeight="1">
-      <c r="A85" s="12"/>
-      <c r="B85" s="8"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="1:6" ht="30" customHeight="1">
-      <c r="A86" s="12"/>
-      <c r="B86" s="8"/>
-      <c r="C86" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" t="s">
-        <v>75</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6" ht="30" customHeight="1">
-      <c r="A87" s="12"/>
-      <c r="B87" s="8"/>
-      <c r="C87" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" t="s">
-        <v>75</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F87" s="12"/>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1">
-      <c r="A88" s="12"/>
-      <c r="B88" s="8"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="19"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="18"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" customHeight="1">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="1:6" ht="30" customHeight="1">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19"/>
+      <c r="C90" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="1:6" ht="30" customHeight="1">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" customHeight="1">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F92" s="18"/>
+    </row>
+    <row r="93" spans="1:6" ht="30" customHeight="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" s="18"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" customHeight="1">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
+      <c r="C94" t="s">
         <v>133</v>
       </c>
-      <c r="F88" s="12"/>
-    </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1">
-      <c r="A89" s="12"/>
-      <c r="B89" s="8"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89" s="1" t="s">
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1">
-      <c r="A90" s="12"/>
-      <c r="B90" s="8"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F90" s="12"/>
-    </row>
-    <row r="91" spans="1:6" ht="30" customHeight="1">
-      <c r="A91" s="12"/>
-      <c r="B91" s="8"/>
-      <c r="C91" t="s">
+      <c r="F94" s="18"/>
+    </row>
+    <row r="95" spans="1:6" ht="30" customHeight="1">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
+      <c r="C95" t="s">
         <v>135</v>
       </c>
-      <c r="D91" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F91" s="12"/>
-    </row>
-    <row r="92" spans="1:6" ht="30" customHeight="1">
-      <c r="A92" s="12"/>
-      <c r="B92" s="8"/>
-      <c r="C92" t="s">
+      <c r="F95" s="18"/>
+    </row>
+    <row r="96" spans="1:6" ht="30" customHeight="1">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" t="s">
         <v>137</v>
-      </c>
-      <c r="D92" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F92" s="12"/>
-    </row>
-    <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="12"/>
-      <c r="B93" s="8"/>
-      <c r="C93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D93" t="s">
-        <v>75</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F93" s="12"/>
-    </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="12"/>
-      <c r="B94" s="8"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F94" s="12"/>
-    </row>
-    <row r="95" spans="1:6" ht="30" customHeight="1">
-      <c r="A95" s="12"/>
-      <c r="B95" s="8"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F95" s="12"/>
-    </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="12"/>
-      <c r="B96" s="8"/>
-      <c r="C96" t="s">
-        <v>143</v>
       </c>
       <c r="D96" t="s">
         <v>75</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F96" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
-      <c r="A97" s="12"/>
-      <c r="B97" s="8"/>
-      <c r="C97" t="s">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97" s="18"/>
+    </row>
+    <row r="98" spans="1:6" ht="30" customHeight="1">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F98" s="18"/>
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" t="s">
+        <v>141</v>
+      </c>
+      <c r="D99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="18"/>
+    </row>
+    <row r="100" spans="1:6" ht="30" customHeight="1">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" customHeight="1">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" t="s">
         <v>145</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="D101" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1">
-      <c r="A98" s="12"/>
-      <c r="B98" s="8"/>
-      <c r="C98" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F98" s="12"/>
-    </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1">
-      <c r="A99" s="12"/>
-      <c r="B99" s="8"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F99" s="12"/>
-    </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1">
-      <c r="A100" s="12"/>
-      <c r="B100" s="8"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F100" s="12"/>
-    </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1">
-      <c r="A101" s="12"/>
-      <c r="B101" s="8"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F101" s="12"/>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
-      <c r="A102" s="12"/>
-      <c r="B102" s="8"/>
-      <c r="C102" t="s">
-        <v>150</v>
-      </c>
-      <c r="D102" t="s">
-        <v>75</v>
-      </c>
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
+      <c r="C102"/>
+      <c r="D102"/>
       <c r="E102" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
-      <c r="A103" s="12"/>
-      <c r="B103" s="8"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F103" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="12"/>
-      <c r="B104" s="8"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="19"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F104" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="12"/>
-      <c r="B105" s="8"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
       <c r="C105" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F105" s="18"/>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="18"/>
+    </row>
+    <row r="107" spans="1:6" ht="30" customHeight="1">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107" s="18"/>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19"/>
+      <c r="C108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F108" s="18"/>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19"/>
+      <c r="C109" t="s">
         <v>153</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F105" s="12"/>
-    </row>
-    <row r="106" spans="1:6" ht="30" customHeight="1">
-      <c r="A106" s="12"/>
-      <c r="B106" s="8"/>
-      <c r="C106" t="s">
-        <v>155</v>
-      </c>
-      <c r="D106" t="s">
-        <v>159</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F106" s="12"/>
+      <c r="D109" t="s">
+        <v>157</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F109" s="18"/>
+    </row>
+    <row r="110" spans="1:6" ht="30" customHeight="1">
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="1:6" ht="30" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" ht="108">
+      <c r="B112" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="2:6" ht="67.5">
+      <c r="B113" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="2:6" ht="30" customHeight="1">
+      <c r="B114" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="67.5">
+      <c r="B115" s="20"/>
+      <c r="C115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="30" customHeight="1">
+      <c r="B116" s="16" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="F42:F106"/>
-    <mergeCell ref="B42:B106"/>
-    <mergeCell ref="A32:A106"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B26:B28"/>
+  <mergeCells count="28">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A3:A20"/>
-    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="B9:B19"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
@@ -2382,6 +2599,19 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A34:A109"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="F44:F109"/>
+    <mergeCell ref="B44:B109"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataGrid.xlsx
+++ b/DataGrid.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="功能列表" sheetId="1" r:id="rId1"/>
+    <sheet name="模型抽象" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="226">
   <si>
     <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,11 +716,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参照数据应用：选择参照来源确定后的回调中把参照表中的数据根据需要同步到grid 的model中，从而实现把需要的参照信息都拉不来。参照数据和grid model中字段的适配在回调中处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考虑对二维表数据的支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照数据应用：选择参照来源确定后的回调中把参照表中的数据根据需要同步到grid 的model中，从而实现把需要的参照信息都拉过来。参照数据和grid model中字段的适配在回调中处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid结构定义：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cols</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>｛field:defination｝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datasource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[record]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列属性（defination对象的属性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readyonly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datagrid属性列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识grid是否只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识是否能在该列单元格编辑数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联数据库字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">注：
+1.grid的列分为可编辑列和不可编辑列（通过列属性readyonly指定）；
+2.可编辑的列的编辑过程分为4个步骤：
+  2.1 进入编辑前的约束检查（检查是否能进入编辑状态）；
+  2.2 编辑器初始化；
+  2.3 编辑后，列之间约束检查（有时候列之间存在值约束关系）；（编辑器在编辑过程中会提供与类型和值相关的检查，但不应该涉及到业务，例如，约束为输入整数、日期约束可选择范围，字符串长度等）；
+  2.4 编辑输入有效改变后，更新关联的字段信息（这通过onchange事件注册相关的处理过程完成；例如更新多个表达式字段的值）
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +960,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,9 +1260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2547,7 +2653,7 @@
         <v>192</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F112" s="7"/>
     </row>
@@ -2579,7 +2685,7 @@
     </row>
     <row r="116" spans="2:6" ht="30" customHeight="1">
       <c r="B116" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2621,12 +2727,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="119.25" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataGrid.xlsx
+++ b/DataGrid.xlsx
@@ -17,11 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="226">
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="270">
   <si>
     <t>sortby([field1,field2,...]);field对象中有comparator属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,11 +607,6 @@
   </si>
   <si>
     <t>注：grid内部实现常用编辑器：textbox,numberbox,combox,datetime,refer等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-暴露相关交互事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -626,10 +617,6 @@
   <si>
     <t xml:space="preserve">
 A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选时应该支持分页多选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -733,10 +720,6 @@
   </si>
   <si>
     <t>｛field:defination｝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -824,6 +807,198 @@
   2.3 编辑后，列之间约束检查（有时候列之间存在值约束关系）；（编辑器在编辑过程中会提供与类型和值相关的检查，但不应该涉及到业务，例如，约束为输入整数、日期约束可选择范围，字符串长度等）；
   2.4 编辑输入有效改变后，更新关联的字段信息（这通过onchange事件注册相关的处理过程完成；例如更新多个表达式字段的值）
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序(包括客户端页内排序和服务器端整体排序；服务器端排序规则可持久化)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientSortable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可在客户端排序（当不分页且数据较多时，关闭客户端排序功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldSorted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[field]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选时应该支持分页多选；默认多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认checkbox和select状态保持同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认不显示竖线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可设置哪些列可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortOnServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[(field,desc/asc)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源，由proxy维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录字段的显示顺序（方便用户临时设置列的可见性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序字段构成的链表，描述当前数据源中指定的排序规则（方便用户临时自定义排序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列固定宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被冻结的最右列的字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+提供相关交互事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前字段内排序方式（与服务器端排序无关，当翻页时，显示时先对分页数据按客户端排序后再显示）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des/asc/undefined;</t>
+  </si>
+  <si>
+    <t>max，min，average，total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列统计方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showStatistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否客户端单页统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示总计行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borderMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边框显示风格（内置几种风格，供选择）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showRowNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示行号列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showCheckbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示复选框列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkOnSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectOnCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择行时选中checkbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中checkbox时选中行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,6 +1119,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -960,9 +1141,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,8 +1439,8 @@
   <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44:B109"/>
+      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1282,16 +1460,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="13.5">
-      <c r="A1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1305,337 +1483,346 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="13.5">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="40.5">
+      <c r="A3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="40.5" customHeight="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="70.5" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="27">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="27">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="33" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="27">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="40.5">
-      <c r="A3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="40.5" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" ht="33" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="27">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="40.5">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="81">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1">
@@ -1649,1043 +1836,1043 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
-      <c r="A27" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="40.5">
+      <c r="A32" s="22"/>
+      <c r="B32" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27">
+      <c r="A33" s="22"/>
+      <c r="B33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="C31" s="1" t="s">
+      <c r="F33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1">
+      <c r="A34" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="40.5">
-      <c r="A32" s="20"/>
-      <c r="B32" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27">
-      <c r="A33" s="20"/>
-      <c r="B33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="F34" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="20"/>
+      <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1">
+      <c r="A36" s="20"/>
+      <c r="B36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="2" t="s">
+    <row r="37" spans="1:6" ht="30" customHeight="1">
+      <c r="A37" s="20"/>
+      <c r="B37" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="2" t="s">
+    <row r="38" spans="1:6" ht="30" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="22"/>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1">
+      <c r="A39" s="20"/>
+      <c r="B39" s="22"/>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="22"/>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1">
+      <c r="A41" s="20"/>
+      <c r="B41" s="22"/>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1">
+      <c r="A42" s="20"/>
+      <c r="B42" s="22"/>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1">
+      <c r="A43" s="20"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20"/>
-      <c r="C38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
-      <c r="C39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="20"/>
-      <c r="C40" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="20"/>
-      <c r="C42" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>65</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>68</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1">
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>71</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>74</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="18"/>
+      <c r="F48" s="20"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="F49" s="20"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" customHeight="1">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="18"/>
+      <c r="F51" s="20"/>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="F52" s="20"/>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="F53" s="20"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" s="18"/>
+        <v>182</v>
+      </c>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D55"/>
       <c r="E55" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F55" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
       <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="18"/>
+      <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="20"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="F59" s="18"/>
+      <c r="F59" s="20"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="F60" s="20"/>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="F61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="F63" s="20"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="18"/>
+        <v>88</v>
+      </c>
+      <c r="F64" s="20"/>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="F65" s="20"/>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="F66" s="20"/>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="F67" s="20"/>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="F68" s="18"/>
+      <c r="F68" s="20"/>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
       <c r="C69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" customHeight="1">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" t="s">
         <v>95</v>
       </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D70" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="18"/>
+      <c r="F70" s="20"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="18"/>
+        <v>97</v>
+      </c>
+      <c r="F71" s="20"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" s="20"/>
+    </row>
+    <row r="73" spans="1:6" ht="30" customHeight="1">
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="1:6" ht="30" customHeight="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>100</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="20"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1">
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D74" t="s">
-        <v>75</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="20"/>
+    </row>
+    <row r="75" spans="1:6" ht="30" customHeight="1">
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" t="s">
         <v>104</v>
       </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="1:6" ht="30" customHeight="1">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D75" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F75" s="18"/>
+      <c r="F75" s="20"/>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="18"/>
+        <v>106</v>
+      </c>
+      <c r="F76" s="20"/>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="20"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" customHeight="1">
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" t="s">
         <v>108</v>
       </c>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D78" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="20"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" customHeight="1">
+      <c r="A79" s="20"/>
+      <c r="B79" s="21"/>
+      <c r="C79" t="s">
         <v>110</v>
       </c>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D79" t="s">
-        <v>75</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F79" s="18"/>
+      <c r="F79" s="20"/>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F80" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" customHeight="1">
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" t="s">
         <v>114</v>
       </c>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>115</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="20"/>
+    </row>
+    <row r="83" spans="1:6" ht="30" customHeight="1">
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
+      <c r="C83" t="s">
         <v>117</v>
       </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="20"/>
+    </row>
+    <row r="84" spans="1:6" ht="30" customHeight="1">
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
+      <c r="C84" t="s">
         <v>119</v>
       </c>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D84" t="s">
-        <v>75</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="20"/>
+    </row>
+    <row r="85" spans="1:6" ht="30" customHeight="1">
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
+      <c r="C85" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85" spans="1:6" ht="30" customHeight="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>74</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D85" t="s">
-        <v>75</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F85" s="18"/>
+      <c r="F85" s="20"/>
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F86" s="18"/>
+        <v>123</v>
+      </c>
+      <c r="F86" s="20"/>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F87" s="18"/>
+        <v>124</v>
+      </c>
+      <c r="F87" s="20"/>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" s="20"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" customHeight="1">
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
+      <c r="C89" t="s">
         <v>126</v>
       </c>
-      <c r="F88" s="18"/>
-    </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>74</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D89" t="s">
-        <v>75</v>
-      </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="20"/>
+    </row>
+    <row r="90" spans="1:6" ht="30" customHeight="1">
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
+      <c r="C90" t="s">
         <v>128</v>
       </c>
-      <c r="F89" s="18"/>
-    </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>74</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D90" t="s">
-        <v>75</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F90" s="18"/>
+      <c r="F90" s="20"/>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F91" s="18"/>
+        <v>130</v>
+      </c>
+      <c r="F91" s="20"/>
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F92" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="F92" s="20"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F93" s="18"/>
+        <v>125</v>
+      </c>
+      <c r="F93" s="20"/>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
       <c r="C94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" t="s">
+        <v>115</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D94" t="s">
-        <v>116</v>
-      </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="20"/>
+    </row>
+    <row r="95" spans="1:6" ht="30" customHeight="1">
+      <c r="A95" s="20"/>
+      <c r="B95" s="21"/>
+      <c r="C95" t="s">
         <v>134</v>
       </c>
-      <c r="F94" s="18"/>
-    </row>
-    <row r="95" spans="1:6" ht="30" customHeight="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D95" t="s">
-        <v>116</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="20"/>
+    </row>
+    <row r="96" spans="1:6" ht="30" customHeight="1">
+      <c r="A96" s="20"/>
+      <c r="B96" s="21"/>
+      <c r="C96" t="s">
         <v>136</v>
       </c>
-      <c r="F95" s="18"/>
-    </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D96" t="s">
-        <v>75</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F96" s="18"/>
+      <c r="F96" s="20"/>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F97" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="F97" s="20"/>
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="20"/>
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1">
+      <c r="A99" s="20"/>
+      <c r="B99" s="21"/>
+      <c r="C99" t="s">
         <v>140</v>
       </c>
-      <c r="F98" s="18"/>
-    </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19"/>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="20"/>
+    </row>
+    <row r="100" spans="1:6" ht="30" customHeight="1">
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
+      <c r="C100" t="s">
         <v>141</v>
       </c>
-      <c r="D99" t="s">
-        <v>75</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F99" s="18"/>
-    </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19"/>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>142</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" s="20"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" customHeight="1">
+      <c r="A101" s="20"/>
+      <c r="B101" s="21"/>
+      <c r="C101" t="s">
         <v>144</v>
       </c>
-      <c r="F100" s="18"/>
-    </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19"/>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D101" t="s">
-        <v>143</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F101" s="18"/>
+      <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="21"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F102" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="F102" s="20"/>
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="21"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F103" s="18"/>
+        <v>139</v>
+      </c>
+      <c r="F103" s="20"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="21"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F104" s="20"/>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1">
+      <c r="A105" s="20"/>
+      <c r="B105" s="21"/>
+      <c r="C105" t="s">
         <v>147</v>
       </c>
-      <c r="F104" s="18"/>
-    </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19"/>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>74</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D105" t="s">
-        <v>75</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F105" s="18"/>
+      <c r="F105" s="20"/>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="21"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F106" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="F106" s="20"/>
     </row>
     <row r="107" spans="1:6" ht="30" customHeight="1">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="21"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F107" s="18"/>
+        <v>139</v>
+      </c>
+      <c r="F107" s="20"/>
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="21"/>
       <c r="C108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D108" t="s">
         <v>150</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="20"/>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1">
+      <c r="A109" s="20"/>
+      <c r="B109" s="21"/>
+      <c r="C109" t="s">
         <v>152</v>
       </c>
-      <c r="F108" s="18"/>
-    </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19"/>
-      <c r="C109" t="s">
-        <v>153</v>
-      </c>
       <c r="D109" t="s">
+        <v>156</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F109" s="18"/>
+      <c r="F109" s="20"/>
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1">
       <c r="B110" s="6"/>
     </row>
     <row r="111" spans="1:6" ht="30" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B111" s="6"/>
       <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" ht="108">
       <c r="B112" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F112" s="7"/>
     </row>
     <row r="113" spans="2:6" ht="67.5">
       <c r="B113" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F113" s="11"/>
     </row>
     <row r="114" spans="2:6" ht="30" customHeight="1">
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="67.5">
+      <c r="B115" s="22"/>
+      <c r="C115" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" ht="67.5">
-      <c r="B115" s="20"/>
-      <c r="C115" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="30" customHeight="1">
       <c r="B116" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2727,144 +2914,335 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D19"/>
+  <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27">
+      <c r="A12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D25" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D28" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27">
+      <c r="A29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="270">
+      <c r="A36" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="119.25" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A19:D19"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataGrid.xlsx
+++ b/DataGrid.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能列表" sheetId="1" r:id="rId1"/>
     <sheet name="模型抽象" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="公有方法" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="301">
   <si>
     <t>sortby([field1,field2,...]);field对象中有comparator属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -999,6 +999,139 @@
   </si>
   <si>
     <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid提供相关的参照相关的定义：
+一个grid中可能有多组参照（多外键），通过键值对存储；每个参照描述中包含参照来源定义，以及参照数据输入到的位置。（编辑参照信息后，返回一个参照信息对应的｛field：value｝json对象，默认的，会把参照关联的字段的值设为同名的field对应的值，如果存在不同名的映射关系，则通过自定义选择参照记录后的回调方法，进行参照数据到grid数据的映射处理。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ refer1:{
+  fields:[],//grid中与参照相关的字段
+  map:function(){}//默认同名映射（被编辑行的fields中的列的值设置为参照提供的数据的同名属性值），
+  //例如 参照返回json={type:'普通销售',saleDate:'2014-12-30',others:''...},fields=['type','saleDate'],时，setValue(row,'type',json.type);setValue(row,'saleDate',json.saleDate)
+ },
+ refer2:{
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editOption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime、Refer、Combox、Number等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是Refer类型，需提供name参数指定使用grid中定义的哪个参照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供一些配置项给编辑器，例如DateTime有效时间控制，Date风格等；根据这些参数初始化编辑器；编辑器一般可以在现有控件基础进行包装，实现编辑器接口定义；编辑器使用享元模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个编辑类型定义单元格使用的编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataGrid API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据配置信息初始化grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void init()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int getPageSize()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void setPageIndex(int index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">void </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pager getPager()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowCol(String fieldName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void hiddenCol(String fieldName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllCols()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHiddenCols()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[(fieldName,fieldTitle)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取datagrid中所有的列（有序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取datagrid中所有隐藏的列（有序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取分页对象，进而进行分页导航及分页设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortBy(Array fields)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[(fieldname,sortType)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按指定排序规则所有数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1051,6 +1184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1066,7 +1205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,21 +1264,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1439,8 +1590,8 @@
   <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1460,16 +1611,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="13.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1483,12 +1634,12 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="13.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
@@ -1503,14 +1654,14 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="40.5">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="1" t="s">
         <v>186</v>
       </c>
@@ -1519,12 +1670,12 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="40.5" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1536,12 +1687,12 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1556,14 +1707,14 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="27">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>229</v>
       </c>
@@ -1573,24 +1724,24 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="13.5">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="22"/>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="27">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="1" t="s">
         <v>230</v>
       </c>
@@ -1600,26 +1751,26 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="33" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="22"/>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
         <v>231</v>
       </c>
@@ -1629,9 +1780,9 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1645,9 +1796,9 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1656,9 +1807,9 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1670,9 +1821,9 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="27">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="1" t="s">
         <v>180</v>
       </c>
@@ -1682,8 +1833,8 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1695,8 +1846,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1708,8 +1859,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1721,9 +1872,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1734,9 +1885,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1745,14 +1896,14 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1761,12 +1912,12 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1825,7 +1976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1">
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="9.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="13"/>
@@ -1836,16 +1987,16 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>188</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1853,52 +2004,52 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="C31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="23"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="40.5">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="6" t="s">
         <v>177</v>
       </c>
@@ -1910,7 +2061,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="27">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3" t="s">
         <v>51</v>
       </c>
@@ -1919,7 +2070,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="24" t="s">
         <v>175</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1930,7 +2081,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
@@ -1939,20 +2090,20 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1">
-      <c r="A36" s="20"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>63</v>
+      <c r="F36" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="23" t="s">
         <v>159</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -1964,13 +2115,13 @@
       <c r="E37" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="23"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -1980,11 +2131,11 @@
       <c r="E38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="19"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="23"/>
       <c r="C39" t="s">
         <v>163</v>
       </c>
@@ -1994,11 +2145,11 @@
       <c r="E39" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="19"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="23"/>
       <c r="C40" t="s">
         <v>166</v>
       </c>
@@ -2008,11 +2159,11 @@
       <c r="E40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="23"/>
       <c r="C41" t="s">
         <v>168</v>
       </c>
@@ -2022,11 +2173,11 @@
       <c r="E41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="23"/>
       <c r="C42" t="s">
         <v>171</v>
       </c>
@@ -2036,21 +2187,21 @@
       <c r="E42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1">
-      <c r="A43" s="20"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="19"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="26" t="s">
         <v>247</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -2062,13 +2213,13 @@
       <c r="E44" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="24" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="26"/>
       <c r="C45" t="s">
         <v>64</v>
       </c>
@@ -2078,11 +2229,11 @@
       <c r="E45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="20"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="26"/>
       <c r="C46" t="s">
         <v>67</v>
       </c>
@@ -2092,11 +2243,11 @@
       <c r="E46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="20"/>
+      <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="26"/>
       <c r="C47" t="s">
         <v>70</v>
       </c>
@@ -2106,11 +2257,11 @@
       <c r="E47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="20"/>
+      <c r="F47" s="24"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="26"/>
       <c r="C48" t="s">
         <v>73</v>
       </c>
@@ -2120,31 +2271,31 @@
       <c r="E48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="20"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="26"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="26"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="20"/>
+      <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="26"/>
       <c r="C51" t="s">
         <v>78</v>
       </c>
@@ -2154,31 +2305,31 @@
       <c r="E51" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="24"/>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="26"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="20"/>
+      <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="26"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="20"/>
+      <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="26"/>
       <c r="C54" t="s">
         <v>184</v>
       </c>
@@ -2188,11 +2339,11 @@
       <c r="E54" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="20"/>
+      <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>183</v>
       </c>
@@ -2200,11 +2351,11 @@
       <c r="E55" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F55" s="20"/>
+      <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="26"/>
       <c r="C56" t="s">
         <v>81</v>
       </c>
@@ -2214,122 +2365,122 @@
       <c r="E56" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="20"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="26"/>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="F57" s="20"/>
+      <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="26"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="20"/>
+      <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="26"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="F59" s="20"/>
+      <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="26"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="20"/>
+      <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="26"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F61" s="20"/>
+      <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="26"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F62" s="20"/>
+      <c r="F62" s="24"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
-      <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="26"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F63" s="20"/>
+      <c r="F63" s="24"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="26"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F64" s="20"/>
+      <c r="F64" s="24"/>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="26"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F65" s="20"/>
+      <c r="F65" s="24"/>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="26"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F66" s="20"/>
+      <c r="F66" s="24"/>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="26"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F67" s="20"/>
+      <c r="F67" s="24"/>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="26"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="F68" s="20"/>
+      <c r="F68" s="24"/>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1">
-      <c r="A69" s="20"/>
-      <c r="B69" s="21"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="26"/>
       <c r="C69" t="s">
         <v>92</v>
       </c>
@@ -2339,11 +2490,11 @@
       <c r="E69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F69" s="20"/>
+      <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="26"/>
       <c r="C70" t="s">
         <v>95</v>
       </c>
@@ -2353,31 +2504,31 @@
       <c r="E70" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F70" s="20"/>
+      <c r="F70" s="24"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
-      <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="26"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="20"/>
+      <c r="F71" s="24"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="26"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F72" s="20"/>
+      <c r="F72" s="24"/>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1">
-      <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="26"/>
       <c r="C73" t="s">
         <v>99</v>
       </c>
@@ -2387,11 +2538,11 @@
       <c r="E73" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="20"/>
+      <c r="F73" s="24"/>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1">
-      <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="26"/>
       <c r="C74" t="s">
         <v>102</v>
       </c>
@@ -2401,11 +2552,11 @@
       <c r="E74" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="20"/>
+      <c r="F74" s="24"/>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1">
-      <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="26"/>
       <c r="C75" t="s">
         <v>104</v>
       </c>
@@ -2415,31 +2566,31 @@
       <c r="E75" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F75" s="20"/>
+      <c r="F75" s="24"/>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1">
-      <c r="A76" s="20"/>
-      <c r="B76" s="21"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="26"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F76" s="20"/>
+      <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1">
-      <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="26"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F77" s="20"/>
+      <c r="F77" s="24"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>108</v>
       </c>
@@ -2449,11 +2600,11 @@
       <c r="E78" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F78" s="20"/>
+      <c r="F78" s="24"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="26"/>
       <c r="C79" t="s">
         <v>110</v>
       </c>
@@ -2463,31 +2614,31 @@
       <c r="E79" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F79" s="20"/>
+      <c r="F79" s="24"/>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1">
-      <c r="A80" s="20"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="26"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F80" s="20"/>
+      <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="26"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F81" s="20"/>
+      <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1">
-      <c r="A82" s="20"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="26"/>
       <c r="C82" t="s">
         <v>114</v>
       </c>
@@ -2497,11 +2648,11 @@
       <c r="E82" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F82" s="20"/>
+      <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1">
-      <c r="A83" s="20"/>
-      <c r="B83" s="21"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>117</v>
       </c>
@@ -2511,11 +2662,11 @@
       <c r="E83" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F83" s="20"/>
+      <c r="F83" s="24"/>
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1">
-      <c r="A84" s="20"/>
-      <c r="B84" s="21"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="26"/>
       <c r="C84" t="s">
         <v>119</v>
       </c>
@@ -2525,11 +2676,11 @@
       <c r="E84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="20"/>
+      <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6" ht="30" customHeight="1">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="26"/>
       <c r="C85" t="s">
         <v>121</v>
       </c>
@@ -2539,41 +2690,41 @@
       <c r="E85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F85" s="20"/>
+      <c r="F85" s="24"/>
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="26"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F86" s="20"/>
+      <c r="F86" s="24"/>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1">
-      <c r="A87" s="20"/>
-      <c r="B87" s="21"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="26"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F87" s="20"/>
+      <c r="F87" s="24"/>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="26"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F88" s="20"/>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1">
-      <c r="A89" s="20"/>
-      <c r="B89" s="21"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="26"/>
       <c r="C89" t="s">
         <v>126</v>
       </c>
@@ -2583,11 +2734,11 @@
       <c r="E89" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="20"/>
+      <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1">
-      <c r="A90" s="20"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="26"/>
       <c r="C90" t="s">
         <v>128</v>
       </c>
@@ -2597,41 +2748,41 @@
       <c r="E90" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F90" s="20"/>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1">
-      <c r="A91" s="20"/>
-      <c r="B91" s="21"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="26"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F91" s="20"/>
+      <c r="F91" s="24"/>
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="26"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F92" s="20"/>
+      <c r="F92" s="24"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
-      <c r="A93" s="20"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="26"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F93" s="20"/>
+      <c r="F93" s="24"/>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="26"/>
       <c r="C94" t="s">
         <v>132</v>
       </c>
@@ -2641,11 +2792,11 @@
       <c r="E94" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F94" s="20"/>
+      <c r="F94" s="24"/>
     </row>
     <row r="95" spans="1:6" ht="30" customHeight="1">
-      <c r="A95" s="20"/>
-      <c r="B95" s="21"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>134</v>
       </c>
@@ -2655,11 +2806,11 @@
       <c r="E95" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F95" s="20"/>
+      <c r="F95" s="24"/>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
-      <c r="A96" s="20"/>
-      <c r="B96" s="21"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="26"/>
       <c r="C96" t="s">
         <v>136</v>
       </c>
@@ -2669,31 +2820,31 @@
       <c r="E96" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F96" s="20"/>
+      <c r="F96" s="24"/>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
-      <c r="A97" s="20"/>
-      <c r="B97" s="21"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="26"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F97" s="20"/>
+      <c r="F97" s="24"/>
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
-      <c r="A98" s="20"/>
-      <c r="B98" s="21"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="26"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F98" s="20"/>
+      <c r="F98" s="24"/>
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1">
-      <c r="A99" s="20"/>
-      <c r="B99" s="21"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="26"/>
       <c r="C99" t="s">
         <v>140</v>
       </c>
@@ -2703,11 +2854,11 @@
       <c r="E99" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F99" s="20"/>
+      <c r="F99" s="24"/>
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1">
-      <c r="A100" s="20"/>
-      <c r="B100" s="21"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="26"/>
       <c r="C100" t="s">
         <v>141</v>
       </c>
@@ -2717,11 +2868,11 @@
       <c r="E100" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F100" s="20"/>
+      <c r="F100" s="24"/>
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1">
-      <c r="A101" s="20"/>
-      <c r="B101" s="21"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="26"/>
       <c r="C101" t="s">
         <v>144</v>
       </c>
@@ -2731,41 +2882,41 @@
       <c r="E101" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F101" s="20"/>
+      <c r="F101" s="24"/>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
-      <c r="A102" s="20"/>
-      <c r="B102" s="21"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="26"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F102" s="20"/>
+      <c r="F102" s="24"/>
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
-      <c r="A103" s="20"/>
-      <c r="B103" s="21"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="26"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F103" s="20"/>
+      <c r="F103" s="24"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
-      <c r="A104" s="20"/>
-      <c r="B104" s="21"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="26"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F104" s="20"/>
+      <c r="F104" s="24"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
-      <c r="A105" s="20"/>
-      <c r="B105" s="21"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="26"/>
       <c r="C105" t="s">
         <v>147</v>
       </c>
@@ -2775,31 +2926,31 @@
       <c r="E105" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F105" s="20"/>
+      <c r="F105" s="24"/>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1">
-      <c r="A106" s="20"/>
-      <c r="B106" s="21"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="26"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F106" s="20"/>
+      <c r="F106" s="24"/>
     </row>
     <row r="107" spans="1:6" ht="30" customHeight="1">
-      <c r="A107" s="20"/>
-      <c r="B107" s="21"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="26"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="20"/>
+      <c r="F107" s="24"/>
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1">
-      <c r="A108" s="20"/>
-      <c r="B108" s="21"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="26"/>
       <c r="C108" t="s">
         <v>149</v>
       </c>
@@ -2809,11 +2960,11 @@
       <c r="E108" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F108" s="20"/>
+      <c r="F108" s="24"/>
     </row>
     <row r="109" spans="1:6" ht="30" customHeight="1">
-      <c r="A109" s="20"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="26"/>
       <c r="C109" t="s">
         <v>152</v>
       </c>
@@ -2823,7 +2974,7 @@
       <c r="E109" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F109" s="20"/>
+      <c r="F109" s="24"/>
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1">
       <c r="B110" s="6"/>
@@ -2851,7 +3002,7 @@
       <c r="F113" s="11"/>
     </row>
     <row r="114" spans="2:6" ht="30" customHeight="1">
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="23" t="s">
         <v>190</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -2862,7 +3013,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="67.5">
-      <c r="B115" s="22"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="1" t="s">
         <v>192</v>
       </c>
@@ -2877,6 +3028,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="F44:F109"/>
+    <mergeCell ref="B44:B109"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="A34:A109"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="E27:E31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
@@ -2892,19 +3056,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A34:A109"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="F44:F109"/>
-    <mergeCell ref="B44:B109"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2914,332 +3065,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E36"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="27" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="F2" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="22" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="B7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" ht="27">
+      <c r="B8" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="27">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" ht="27">
+      <c r="B12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="1" t="s">
+    <row r="21" spans="1:5" ht="192.75" customHeight="1">
+      <c r="B21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="22" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:5" ht="27">
+      <c r="B29" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="270">
-      <c r="A36" s="17" t="s">
+    <row r="32" spans="1:5" ht="27">
+      <c r="B32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="57.75" customHeight="1">
+      <c r="B33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="270">
+      <c r="B40" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3248,12 +3438,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="44.25" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataGrid.xlsx
+++ b/DataGrid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="功能列表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="320">
   <si>
     <t>sortby([field1,field2,...]);field对象中有comparator属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
   </si>
   <si>
     <t>尽可能合并相邻行中具有相同列数据的单元格数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据查询条件过滤数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -633,10 +629,6 @@
   </si>
   <si>
     <t>列相关的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有些列为外键列，视图模式中表现为外链，点击时显示详细信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1134,12 +1126,96 @@
     <t>按指定排序规则所有数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>有些列为外键列，视图模式中表现为外链，点击时显示详细信息;非空列样式提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处仅只相关的api实现；具体如何提供用户交互逐步完善，第一阶段通过按钮命令能实现相关操作即可，后续优化交互方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊模型处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以把二维表数据视为待行属性的行记录集，因此是grid的特殊情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：优先级从A-Z递减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用户常用的功能有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.当前软件存在哪些痛点？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行高控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容自动换行功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一设置行高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据内容调整宽度，此时固定列宽设置无效，内容自动换行无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自适应宽度支持（为动作而不是特性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录加解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是单页处理还是处理所有数据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,6 +1237,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1205,7 +1289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,9 +1324,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1269,29 +1350,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,11 +1683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:S123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1611,16 +1707,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="13.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1634,12 +1730,12 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="13.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
@@ -1654,28 +1750,28 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="40.5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="40.5" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1687,12 +1783,12 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="70.5" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1707,16 +1803,16 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="27">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>27</v>
@@ -1724,26 +1820,26 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="13.5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="27"/>
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="27">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>27</v>
@@ -1751,28 +1847,28 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="33" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="27"/>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
@@ -1780,25 +1876,25 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1807,1248 +1903,1341 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+    <row r="14" spans="1:19" ht="40.5">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>299</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="1" t="s">
+    <row r="20" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22" t="s">
+      <c r="F20" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C23" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="1" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="40.5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="27"/>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="81">
+    <row r="25" spans="1:8" ht="30" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.5">
+      <c r="A27" s="21"/>
+      <c r="B27" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="59.25" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="81">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1">
-      <c r="A27" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="22"/>
       <c r="F29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="2" t="s">
-        <v>27</v>
-      </c>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="22"/>
+        <v>52</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>186</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="40.5">
-      <c r="A32" s="23"/>
-      <c r="B32" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="27">
-      <c r="A33" s="23"/>
-      <c r="B33" s="3" t="s">
+      <c r="G31" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E33" s="27"/>
       <c r="F33" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1">
-      <c r="A34" s="24" t="s">
-        <v>175</v>
-      </c>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="A34" s="27"/>
       <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:7" ht="40.5">
+      <c r="A36" s="27"/>
+      <c r="B36" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" ht="27">
+      <c r="A37" s="27"/>
+      <c r="B37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1">
+      <c r="A38" s="27"/>
+      <c r="B38" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="23" t="s">
+    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="23"/>
-      <c r="C38" t="s">
+      <c r="D43" t="s">
         <v>160</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="26"/>
+      <c r="C44" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="23"/>
-      <c r="C39" t="s">
+      <c r="D44" t="s">
         <v>163</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="25"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="23"/>
-      <c r="C40" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="25"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="23"/>
-      <c r="C41" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="25"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="23"/>
-      <c r="C42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="25"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="25"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1">
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="26"/>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1">
+        <v>166</v>
+      </c>
+      <c r="F45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1">
       <c r="A46" s="24"/>
       <c r="B46" s="26"/>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1">
+        <v>169</v>
+      </c>
+      <c r="F46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1">
       <c r="A47" s="24"/>
       <c r="B47" s="26"/>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1">
+        <v>172</v>
+      </c>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1">
       <c r="A48" s="24"/>
       <c r="B48" s="26"/>
-      <c r="C48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="24"/>
+      <c r="C48" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
       <c r="A49" s="24"/>
-      <c r="B49" s="26"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="24"/>
+      <c r="B49" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
       <c r="A50" s="24"/>
-      <c r="B50" s="26"/>
-      <c r="C50"/>
-      <c r="D50"/>
+      <c r="B50" s="25"/>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1">
       <c r="A51" s="24"/>
-      <c r="B51" s="26"/>
+      <c r="B51" s="25"/>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F51" s="24"/>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1">
       <c r="A52" s="24"/>
-      <c r="B52" s="26"/>
-      <c r="C52"/>
-      <c r="D52"/>
+      <c r="B52" s="25"/>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
       <c r="E52" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F52" s="24"/>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1">
       <c r="A53" s="24"/>
-      <c r="B53" s="26"/>
-      <c r="C53"/>
-      <c r="D53"/>
+      <c r="B53" s="25"/>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F53" s="24"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1">
       <c r="A54" s="24"/>
-      <c r="B54" s="26"/>
-      <c r="C54" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" t="s">
-        <v>80</v>
-      </c>
+      <c r="B54" s="25"/>
+      <c r="C54"/>
+      <c r="D54"/>
       <c r="E54" s="1" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="F54" s="24"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1">
       <c r="A55" s="24"/>
-      <c r="B55" s="26"/>
-      <c r="C55" t="s">
-        <v>183</v>
-      </c>
+      <c r="B55" s="25"/>
+      <c r="C55"/>
       <c r="D55"/>
       <c r="E55" s="1" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="F55" s="24"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1">
       <c r="A56" s="24"/>
-      <c r="B56" s="26"/>
+      <c r="B56" s="25"/>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1">
       <c r="A57" s="24"/>
-      <c r="B57" s="26"/>
+      <c r="B57" s="25"/>
       <c r="C57"/>
       <c r="D57"/>
+      <c r="E57" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F57" s="24"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1">
       <c r="A58" s="24"/>
-      <c r="B58" s="26"/>
+      <c r="B58" s="25"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F58" s="24"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1">
       <c r="A59" s="24"/>
-      <c r="B59" s="26"/>
-      <c r="C59"/>
-      <c r="D59"/>
+      <c r="B59" s="25"/>
+      <c r="C59" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="F59" s="24"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1">
       <c r="A60" s="24"/>
-      <c r="B60" s="26"/>
-      <c r="C60"/>
+      <c r="B60" s="25"/>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
       <c r="D60"/>
       <c r="E60" s="1" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="F60" s="24"/>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1">
       <c r="A61" s="24"/>
-      <c r="B61" s="26"/>
-      <c r="C61"/>
-      <c r="D61"/>
+      <c r="B61" s="25"/>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
+        <v>79</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F61" s="24"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
       <c r="A62" s="24"/>
-      <c r="B62" s="26"/>
+      <c r="B62" s="25"/>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F62" s="24"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1">
       <c r="A63" s="24"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="25"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F63" s="24"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1">
       <c r="A64" s="24"/>
-      <c r="B64" s="26"/>
+      <c r="B64" s="25"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F64" s="24"/>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1">
       <c r="A65" s="24"/>
-      <c r="B65" s="26"/>
+      <c r="B65" s="25"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F65" s="24"/>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1">
       <c r="A66" s="24"/>
-      <c r="B66" s="26"/>
+      <c r="B66" s="25"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F66" s="24"/>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1">
       <c r="A67" s="24"/>
-      <c r="B67" s="26"/>
+      <c r="B67" s="25"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F67" s="24"/>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1">
       <c r="A68" s="24"/>
-      <c r="B68" s="26"/>
+      <c r="B68" s="25"/>
       <c r="C68"/>
       <c r="D68"/>
+      <c r="E68" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F68" s="24"/>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1">
       <c r="A69" s="24"/>
-      <c r="B69" s="26"/>
-      <c r="C69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" t="s">
-        <v>93</v>
-      </c>
+      <c r="B69" s="25"/>
+      <c r="C69"/>
+      <c r="D69"/>
       <c r="E69" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1">
       <c r="A70" s="24"/>
-      <c r="B70" s="26"/>
-      <c r="C70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" t="s">
-        <v>93</v>
-      </c>
+      <c r="B70" s="25"/>
+      <c r="C70"/>
+      <c r="D70"/>
       <c r="E70" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F70" s="24"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1">
       <c r="A71" s="24"/>
-      <c r="B71" s="26"/>
+      <c r="B71" s="25"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F71" s="24"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
       <c r="A72" s="24"/>
-      <c r="B72" s="26"/>
+      <c r="B72" s="25"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F72" s="24"/>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1">
       <c r="A73" s="24"/>
-      <c r="B73" s="26"/>
-      <c r="C73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="B73" s="25"/>
+      <c r="C73"/>
+      <c r="D73"/>
       <c r="F73" s="24"/>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1">
       <c r="A74" s="24"/>
-      <c r="B74" s="26"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F74" s="24"/>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1">
       <c r="A75" s="24"/>
-      <c r="B75" s="26"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D75" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F75" s="24"/>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1">
       <c r="A76" s="24"/>
-      <c r="B76" s="26"/>
+      <c r="B76" s="25"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F76" s="24"/>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1">
       <c r="A77" s="24"/>
-      <c r="B77" s="26"/>
+      <c r="B77" s="25"/>
       <c r="C77"/>
       <c r="D77"/>
       <c r="E77" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F77" s="24"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1">
       <c r="A78" s="24"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="25"/>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F78" s="24"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1">
       <c r="A79" s="24"/>
-      <c r="B79" s="26"/>
+      <c r="B79" s="25"/>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F79" s="24"/>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1">
       <c r="A80" s="24"/>
-      <c r="B80" s="26"/>
-      <c r="C80"/>
-      <c r="D80"/>
+      <c r="B80" s="25"/>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="s">
+        <v>73</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1">
       <c r="A81" s="24"/>
-      <c r="B81" s="26"/>
+      <c r="B81" s="25"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1">
       <c r="A82" s="24"/>
-      <c r="B82" s="26"/>
-      <c r="C82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" t="s">
-        <v>115</v>
-      </c>
+      <c r="B82" s="25"/>
+      <c r="C82"/>
+      <c r="D82"/>
       <c r="E82" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F82" s="24"/>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1">
       <c r="A83" s="24"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="25"/>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F83" s="24"/>
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1">
       <c r="A84" s="24"/>
-      <c r="B84" s="26"/>
+      <c r="B84" s="25"/>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6" ht="30" customHeight="1">
       <c r="A85" s="24"/>
-      <c r="B85" s="26"/>
-      <c r="C85" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" t="s">
-        <v>74</v>
-      </c>
+      <c r="B85" s="25"/>
+      <c r="C85"/>
+      <c r="D85"/>
       <c r="E85" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F85" s="24"/>
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1">
       <c r="A86" s="24"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="25"/>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F86" s="24"/>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1">
       <c r="A87" s="24"/>
-      <c r="B87" s="26"/>
-      <c r="C87"/>
-      <c r="D87"/>
+      <c r="B87" s="25"/>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" t="s">
+        <v>114</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F87" s="24"/>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1">
       <c r="A88" s="24"/>
-      <c r="B88" s="26"/>
-      <c r="C88"/>
-      <c r="D88"/>
+      <c r="B88" s="25"/>
+      <c r="C88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" t="s">
+        <v>114</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1">
       <c r="A89" s="24"/>
-      <c r="B89" s="26"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1">
       <c r="A90" s="24"/>
-      <c r="B90" s="26"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1">
       <c r="A91" s="24"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="25"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F91" s="24"/>
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1">
       <c r="A92" s="24"/>
-      <c r="B92" s="26"/>
+      <c r="B92" s="25"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F92" s="24"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1">
       <c r="A93" s="24"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="25"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F93" s="24"/>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1">
       <c r="A94" s="24"/>
-      <c r="B94" s="26"/>
+      <c r="B94" s="25"/>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F94" s="24"/>
     </row>
     <row r="95" spans="1:6" ht="30" customHeight="1">
       <c r="A95" s="24"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="25"/>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F95" s="24"/>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1">
       <c r="A96" s="24"/>
-      <c r="B96" s="26"/>
-      <c r="C96" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" t="s">
-        <v>74</v>
-      </c>
+      <c r="B96" s="25"/>
+      <c r="C96"/>
+      <c r="D96"/>
       <c r="E96" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F96" s="24"/>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1">
       <c r="A97" s="24"/>
-      <c r="B97" s="26"/>
+      <c r="B97" s="25"/>
       <c r="C97"/>
       <c r="D97"/>
       <c r="E97" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F97" s="24"/>
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1">
       <c r="A98" s="24"/>
-      <c r="B98" s="26"/>
+      <c r="B98" s="25"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F98" s="24"/>
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1">
       <c r="A99" s="24"/>
-      <c r="B99" s="26"/>
+      <c r="B99" s="25"/>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D99" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="F99" s="24"/>
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1">
       <c r="A100" s="24"/>
-      <c r="B100" s="26"/>
+      <c r="B100" s="25"/>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F100" s="24"/>
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1">
       <c r="A101" s="24"/>
-      <c r="B101" s="26"/>
+      <c r="B101" s="25"/>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F101" s="24"/>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1">
       <c r="A102" s="24"/>
-      <c r="B102" s="26"/>
+      <c r="B102" s="25"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F102" s="24"/>
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1">
       <c r="A103" s="24"/>
-      <c r="B103" s="26"/>
+      <c r="B103" s="25"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F103" s="24"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1">
       <c r="A104" s="24"/>
-      <c r="B104" s="26"/>
-      <c r="C104"/>
-      <c r="D104"/>
+      <c r="B104" s="25"/>
+      <c r="C104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" t="s">
+        <v>73</v>
+      </c>
       <c r="E104" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F104" s="24"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1">
       <c r="A105" s="24"/>
-      <c r="B105" s="26"/>
+      <c r="B105" s="25"/>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D105" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F105" s="24"/>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1">
       <c r="A106" s="24"/>
-      <c r="B106" s="26"/>
-      <c r="C106"/>
-      <c r="D106"/>
+      <c r="B106" s="25"/>
+      <c r="C106" t="s">
+        <v>143</v>
+      </c>
+      <c r="D106" t="s">
+        <v>141</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F106" s="24"/>
     </row>
     <row r="107" spans="1:6" ht="30" customHeight="1">
       <c r="A107" s="24"/>
-      <c r="B107" s="26"/>
+      <c r="B107" s="25"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F107" s="24"/>
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1">
       <c r="A108" s="24"/>
-      <c r="B108" s="26"/>
-      <c r="C108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D108" t="s">
-        <v>150</v>
-      </c>
+      <c r="B108" s="25"/>
+      <c r="C108"/>
+      <c r="D108"/>
       <c r="E108" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F108" s="24"/>
     </row>
     <row r="109" spans="1:6" ht="30" customHeight="1">
       <c r="A109" s="24"/>
-      <c r="B109" s="26"/>
-      <c r="C109" t="s">
-        <v>152</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="B109" s="25"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F109" s="24"/>
+    </row>
+    <row r="110" spans="1:6" ht="30" customHeight="1">
+      <c r="A110" s="24"/>
+      <c r="B110" s="25"/>
+      <c r="C110" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" t="s">
+        <v>73</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F110" s="24"/>
+    </row>
+    <row r="111" spans="1:6" ht="30" customHeight="1">
+      <c r="A111" s="24"/>
+      <c r="B111" s="25"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F111" s="24"/>
+    </row>
+    <row r="112" spans="1:6" ht="30" customHeight="1">
+      <c r="A112" s="24"/>
+      <c r="B112" s="25"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" s="24"/>
+    </row>
+    <row r="113" spans="1:6" ht="30" customHeight="1">
+      <c r="A113" s="24"/>
+      <c r="B113" s="25"/>
+      <c r="C113" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F113" s="24"/>
+    </row>
+    <row r="114" spans="1:6" ht="30" customHeight="1">
+      <c r="A114" s="24"/>
+      <c r="B114" s="25"/>
+      <c r="C114" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F109" s="24"/>
-    </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1">
-      <c r="A111" s="1" t="s">
+      <c r="F114" s="24"/>
+    </row>
+    <row r="115" spans="1:6" ht="40.5">
+      <c r="A115" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D115" s="27"/>
+      <c r="E115" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="67.5">
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D116" s="27"/>
+      <c r="E116" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B111" s="6"/>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" ht="108">
-      <c r="B112" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="2:6" ht="67.5">
-      <c r="B113" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="2:6" ht="30" customHeight="1">
-      <c r="B114" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" ht="67.5">
-      <c r="B115" s="23"/>
-      <c r="C115" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" ht="30" customHeight="1">
-      <c r="B116" s="16" t="s">
-        <v>197</v>
-      </c>
+      <c r="E117" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A119" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+    </row>
+    <row r="121" spans="1:6" ht="13.5">
+      <c r="A121" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="13.5">
+      <c r="A122" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+    </row>
+    <row r="123" spans="1:6" ht="13.5">
+      <c r="A123" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="F44:F109"/>
-    <mergeCell ref="B44:B109"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A34:A109"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="E27:E31"/>
+  <mergeCells count="36">
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B9:B22"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="G31:G37"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A119:F119"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A3:A24"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
@@ -3056,6 +3245,17 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A39:A114"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="F49:F114"/>
+    <mergeCell ref="B49:B114"/>
+    <mergeCell ref="B115:B116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3065,11 +3265,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3084,344 +3284,363 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="A2" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27">
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27">
       <c r="B12" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="192.75" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="E21" s="26"/>
+        <v>202</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="22"/>
+      <c r="A24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="27"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27">
       <c r="B29" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27">
       <c r="B32" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="57.75" customHeight="1">
+      <c r="B33" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="57.75" customHeight="1">
-      <c r="B33" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="270">
-      <c r="B40" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="E40" s="17"/>
+    </row>
+    <row r="40" spans="1:5" ht="270">
+      <c r="B40" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.5">
+      <c r="A41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="94.5">
+      <c r="B42" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="40.5">
+      <c r="B43" s="11" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3440,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3451,94 +3670,98 @@
     <col min="4" max="4" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" hidden="1">
       <c r="B3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" hidden="1"/>
+    <row r="5" spans="2:4" hidden="1">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" hidden="1">
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" hidden="1"/>
+    <row r="8" spans="2:4" hidden="1">
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" hidden="1">
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" hidden="1">
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" hidden="1">
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" hidden="1"/>
+    <row r="13" spans="2:4" hidden="1">
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" hidden="1">
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" hidden="1">
+      <c r="C15" t="s">
         <v>285</v>
       </c>
-      <c r="C5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="16" spans="2:4" hidden="1">
+      <c r="C16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" hidden="1"/>
+    <row r="18" spans="2:4" hidden="1">
+      <c r="B18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C18" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="C15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="C16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>298</v>
-      </c>
-      <c r="C18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
